--- a/Schnittstellen.xlsx
+++ b/Schnittstellen.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t xml:space="preserve">hyBit Modellierungsworkshop</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">Szenariendaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17;15</t>
   </si>
 </sst>
 </file>
@@ -278,16 +281,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="82.39"/>
   </cols>
   <sheetData>
@@ -595,6 +598,66 @@
       </c>
       <c r="F18" s="6" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
